--- a/data/survey_data_2.xlsx
+++ b/data/survey_data_2.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vinhht/ai_projects/survey_analysis/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F11A6907-DD1D-F44F-8AC6-2C3D51777ACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -493,8 +499,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -557,6 +563,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -603,7 +617,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -635,9 +649,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -669,6 +701,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -844,14 +894,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AK1" sqref="AK1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="36" max="36" width="27.83203125" customWidth="1"/>
+    <col min="37" max="37" width="30.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:38">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -967,7 +1023,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:38">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -1083,7 +1139,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="3" spans="1:38">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -1199,7 +1255,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="1:38">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -1315,7 +1371,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="5" spans="1:38">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -1431,7 +1487,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="6" spans="1:38">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -1547,7 +1603,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="7" spans="1:38">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -1663,7 +1719,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="8" spans="1:38">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>44</v>
       </c>
@@ -1779,7 +1835,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="9" spans="1:38">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -1895,7 +1951,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="10" spans="1:38">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -2011,7 +2067,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="11" spans="1:38">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>47</v>
       </c>
@@ -2127,7 +2183,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="12" spans="1:38">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -2243,7 +2299,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="13" spans="1:38">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -2359,7 +2415,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="14" spans="1:38">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -2475,7 +2531,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="15" spans="1:38">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>51</v>
       </c>
@@ -2591,7 +2647,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="16" spans="1:38">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>52</v>
       </c>
@@ -2707,7 +2763,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="17" spans="1:38">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>53</v>
       </c>
@@ -2823,7 +2879,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="18" spans="1:38">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>54</v>
       </c>
@@ -2939,7 +2995,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="19" spans="1:38">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>55</v>
       </c>
@@ -3055,7 +3111,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="20" spans="1:38">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>56</v>
       </c>
@@ -3171,7 +3227,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="21" spans="1:38">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>57</v>
       </c>
@@ -3287,7 +3343,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="22" spans="1:38">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>58</v>
       </c>
@@ -3403,7 +3459,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="23" spans="1:38">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>59</v>
       </c>
@@ -3519,7 +3575,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="24" spans="1:38">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>60</v>
       </c>
@@ -3635,7 +3691,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="25" spans="1:38">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>61</v>
       </c>
@@ -3751,7 +3807,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="26" spans="1:38">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>62</v>
       </c>
@@ -3867,7 +3923,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="27" spans="1:38">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>63</v>
       </c>
@@ -3983,7 +4039,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="28" spans="1:38">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>64</v>
       </c>
@@ -4099,7 +4155,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="29" spans="1:38">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>65</v>
       </c>
@@ -4215,7 +4271,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="30" spans="1:38">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>66</v>
       </c>
@@ -4331,7 +4387,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="31" spans="1:38">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>67</v>
       </c>
@@ -4447,7 +4503,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="32" spans="1:38">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>68</v>
       </c>
@@ -4563,7 +4619,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="33" spans="1:38">
+    <row r="33" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>69</v>
       </c>
@@ -4679,7 +4735,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="34" spans="1:38">
+    <row r="34" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>70</v>
       </c>
@@ -4795,7 +4851,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="35" spans="1:38">
+    <row r="35" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>71</v>
       </c>
@@ -4911,7 +4967,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="36" spans="1:38">
+    <row r="36" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>72</v>
       </c>
@@ -5027,7 +5083,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="37" spans="1:38">
+    <row r="37" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>73</v>
       </c>
@@ -5143,7 +5199,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="38" spans="1:38">
+    <row r="38" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>74</v>
       </c>
@@ -5259,7 +5315,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="39" spans="1:38">
+    <row r="39" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>75</v>
       </c>
@@ -5375,7 +5431,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="40" spans="1:38">
+    <row r="40" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>76</v>
       </c>
@@ -5491,7 +5547,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="41" spans="1:38">
+    <row r="41" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>77</v>
       </c>
@@ -5607,7 +5663,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="42" spans="1:38">
+    <row r="42" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>78</v>
       </c>
@@ -5723,7 +5779,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="43" spans="1:38">
+    <row r="43" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>79</v>
       </c>
@@ -5839,7 +5895,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="44" spans="1:38">
+    <row r="44" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>80</v>
       </c>
@@ -5955,7 +6011,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="45" spans="1:38">
+    <row r="45" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>81</v>
       </c>
@@ -6071,7 +6127,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="46" spans="1:38">
+    <row r="46" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>82</v>
       </c>
@@ -6187,7 +6243,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="47" spans="1:38">
+    <row r="47" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>83</v>
       </c>
@@ -6303,7 +6359,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="48" spans="1:38">
+    <row r="48" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>84</v>
       </c>
@@ -6419,7 +6475,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="49" spans="1:38">
+    <row r="49" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>85</v>
       </c>
@@ -6535,7 +6591,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="50" spans="1:38">
+    <row r="50" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>86</v>
       </c>
@@ -6651,7 +6707,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="51" spans="1:38">
+    <row r="51" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>87</v>
       </c>
@@ -6767,7 +6823,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="52" spans="1:38">
+    <row r="52" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>88</v>
       </c>
@@ -6883,7 +6939,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="53" spans="1:38">
+    <row r="53" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>89</v>
       </c>
@@ -6999,7 +7055,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="54" spans="1:38">
+    <row r="54" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>90</v>
       </c>
@@ -7115,7 +7171,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="55" spans="1:38">
+    <row r="55" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>91</v>
       </c>
@@ -7231,7 +7287,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="56" spans="1:38">
+    <row r="56" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>92</v>
       </c>
@@ -7347,7 +7403,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="57" spans="1:38">
+    <row r="57" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>93</v>
       </c>
@@ -7463,7 +7519,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="58" spans="1:38">
+    <row r="58" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>94</v>
       </c>
@@ -7579,7 +7635,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="59" spans="1:38">
+    <row r="59" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>95</v>
       </c>
@@ -7695,7 +7751,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="60" spans="1:38">
+    <row r="60" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>96</v>
       </c>
@@ -7811,7 +7867,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="61" spans="1:38">
+    <row r="61" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>97</v>
       </c>
@@ -7927,7 +7983,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="62" spans="1:38">
+    <row r="62" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>98</v>
       </c>
@@ -8043,7 +8099,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="63" spans="1:38">
+    <row r="63" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>99</v>
       </c>
@@ -8159,7 +8215,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="64" spans="1:38">
+    <row r="64" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>100</v>
       </c>
@@ -8275,7 +8331,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="65" spans="1:38">
+    <row r="65" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>101</v>
       </c>
@@ -8391,7 +8447,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="66" spans="1:38">
+    <row r="66" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>102</v>
       </c>
@@ -8507,7 +8563,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="67" spans="1:38">
+    <row r="67" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>103</v>
       </c>
@@ -8623,7 +8679,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="68" spans="1:38">
+    <row r="68" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>104</v>
       </c>
@@ -8739,7 +8795,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="69" spans="1:38">
+    <row r="69" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>105</v>
       </c>
@@ -8855,7 +8911,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="70" spans="1:38">
+    <row r="70" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>106</v>
       </c>
@@ -8971,7 +9027,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="71" spans="1:38">
+    <row r="71" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>107</v>
       </c>
@@ -9087,7 +9143,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="72" spans="1:38">
+    <row r="72" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>108</v>
       </c>
@@ -9203,7 +9259,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="73" spans="1:38">
+    <row r="73" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>109</v>
       </c>
@@ -9319,7 +9375,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="74" spans="1:38">
+    <row r="74" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>110</v>
       </c>
@@ -9435,7 +9491,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="75" spans="1:38">
+    <row r="75" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>111</v>
       </c>
@@ -9551,7 +9607,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="76" spans="1:38">
+    <row r="76" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>112</v>
       </c>
@@ -9667,7 +9723,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="77" spans="1:38">
+    <row r="77" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>113</v>
       </c>
@@ -9783,7 +9839,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="78" spans="1:38">
+    <row r="78" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>114</v>
       </c>
@@ -9899,7 +9955,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="79" spans="1:38">
+    <row r="79" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>115</v>
       </c>
@@ -10015,7 +10071,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="80" spans="1:38">
+    <row r="80" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>116</v>
       </c>
@@ -10131,7 +10187,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="81" spans="1:38">
+    <row r="81" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>117</v>
       </c>
@@ -10247,7 +10303,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="82" spans="1:38">
+    <row r="82" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>118</v>
       </c>
@@ -10363,7 +10419,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="83" spans="1:38">
+    <row r="83" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>119</v>
       </c>
@@ -10479,7 +10535,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="84" spans="1:38">
+    <row r="84" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>120</v>
       </c>
@@ -10595,7 +10651,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="85" spans="1:38">
+    <row r="85" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>121</v>
       </c>
@@ -10711,7 +10767,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="86" spans="1:38">
+    <row r="86" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>122</v>
       </c>
@@ -10827,7 +10883,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="87" spans="1:38">
+    <row r="87" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>123</v>
       </c>
@@ -10943,7 +10999,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="88" spans="1:38">
+    <row r="88" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>124</v>
       </c>
@@ -11059,7 +11115,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="89" spans="1:38">
+    <row r="89" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>125</v>
       </c>
@@ -11175,7 +11231,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="90" spans="1:38">
+    <row r="90" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>126</v>
       </c>
